--- a/缺陷样本.xlsx
+++ b/缺陷样本.xlsx
@@ -452,31 +452,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[3, 3, 386106, 1, 3428838]</t>
+          <t>[224202, 3728511]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[0.14084, 8.9454]</t>
+          <t>[0.01795, 17.29556]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[224202, 3728511]</t>
+          <t>[3, 3, 386106, 1, 3428838]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.01795, 17.29556]</t>
+          <t>[0.14084, 8.9454]</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[450288, 3283215]</t>
+          <t>[305184, 3204652]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.05382, 31.28158]</t>
+          <t>[0.00319, 10.80182]</t>
         </is>
       </c>
     </row>
@@ -516,27 +516,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[304554, 3175578]</t>
+          <t>[450288, 3283215]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0.02214, 9.2851]</t>
+          <t>[0.05382, 31.28158]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[3240200]</t>
+          <t>[301924, 3226311]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[8.94524]</t>
+          <t>[0.0007, 26.91463]</t>
         </is>
       </c>
     </row>
@@ -546,12 +546,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[301924, 3226311]</t>
+          <t>[304554, 3175578]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[0.0007, 26.91463]</t>
+          <t>[0.02214, 9.2851]</t>
         </is>
       </c>
     </row>
@@ -576,12 +576,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[305184, 3204652]</t>
+          <t>[288225, 3303582]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[0.00319, 10.80182]</t>
+          <t>[0.01784, 31.27066]</t>
         </is>
       </c>
     </row>
@@ -591,12 +591,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[288225, 3303582]</t>
+          <t>[279939, 3309150]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[0.01784, 31.27066]</t>
+          <t>[0.03376, 18.59034]</t>
         </is>
       </c>
     </row>
@@ -617,16 +617,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[279939, 3309150]</t>
+          <t>[3240200]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[0.03376, 18.59034]</t>
+          <t>[8.94524]</t>
         </is>
       </c>
     </row>
@@ -636,12 +636,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[227850, 3199250]</t>
+          <t>[645060, 3200239]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[0.03405, 12.5441]</t>
+          <t>[0.01017, 8.42827]</t>
         </is>
       </c>
     </row>
@@ -651,12 +651,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[645060, 3200239]</t>
+          <t>[261404, 3382236]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[0.01017, 8.42827]</t>
+          <t>[0.01607, 57.35139]</t>
         </is>
       </c>
     </row>
@@ -666,72 +666,72 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[261404, 3382236]</t>
+          <t>[227850, 3199250]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[0.01607, 57.35139]</t>
+          <t>[0.03405, 12.5441]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[241552, 3422529]</t>
+          <t>[4, 2, 6, 7, 22, 2, 330, 216672, 28, 15, 1, 2, 3420289]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[0.00138, 13.13378]</t>
+          <t>[1.7976931348623157e+308, 2.93953, 0.01856, 2.54013, 0.00323, 50.543]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[4, 2, 6, 7, 22, 2, 330, 216672, 28, 15, 1, 2, 3420289]</t>
+          <t>[241552, 3422529]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[1.7976931348623157e+308, 2.93953, 0.01856, 2.54013, 0.00323, 50.543]</t>
+          <t>[0.00138, 13.13378]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[24, 2366, 33, 1, 2, 3, 36, 120, 220, 3420942]</t>
+          <t>[236171, 2, 245, 6, 1, 3456834]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[17.24494, 0.84595, 1.7976931348623157e+308, 1.7976931348623157e+308, 1.7976931348623157e+308, 3.03492, 7.96866]</t>
+          <t>[0.06918, 30.56795, 14.42]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[257424, 3350325]</t>
+          <t>[1, 231037, 1, 1, 4, 15, 2, 65, 2, 3434382]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[0.02175, 10.35584]</t>
+          <t>[0.05787, 419.18919, 17.86146, 5.47073]</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[1, 231037, 1, 1, 4, 15, 2, 65, 2, 3434382]</t>
+          <t>[24, 2366, 33, 1, 2, 3, 36, 120, 220, 3420942]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[0.05787, 419.18919, 17.86146, 5.47073]</t>
+          <t>[17.24494, 0.84595, 1.7976931348623157e+308, 1.7976931348623157e+308, 1.7976931348623157e+308, 3.03492, 7.96866]</t>
         </is>
       </c>
     </row>
@@ -767,16 +767,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[236171, 2, 245, 6, 1, 3456834]</t>
+          <t>[1, 72, 5, 12, 1, 12, 1, 3, 3, 264, 4, 8, 529720, 3416556]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[0.06918, 30.56795, 14.42]</t>
+          <t>[66.16234, 0.0, 3.32353, 18.12975, 1.7976931348623157e+308, 0.01094, 15.27559]</t>
         </is>
       </c>
     </row>
@@ -797,16 +797,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[1, 72, 5, 12, 1, 12, 1, 3, 3, 264, 4, 8, 529720, 3416556]</t>
+          <t>[257424, 3350325]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[66.16234, 0.0, 3.32353, 18.12975, 1.7976931348623157e+308, 0.01094, 15.27559]</t>
+          <t>[0.02175, 10.35584]</t>
         </is>
       </c>
     </row>

--- a/缺陷样本.xlsx
+++ b/缺陷样本.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,378 +436,1521 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>连通区数量</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>各个连通区域的面积</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>各个边界矩形坐标</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>各个轮廓与拟合椭圆的相似度</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>各个拟合椭圆离心率</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>各个连通区域的面积_平均值</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>各个连通区域的面积_最大值</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>各个连通区域的面积_最小值</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>各个轮廓与拟合椭圆的相似度_平均值</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>各个轮廓与拟合椭圆的相似度_最大值</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>各个轮廓与拟合椭圆的相似度_最小值</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>各个拟合椭圆离心率_平均值</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>各个拟合椭圆离心率_最大值</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>各个拟合椭圆离心率_最小值</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[224202, 3728511]</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[0.01795, 17.29556]</t>
-        </is>
+          <t>[210, 221, 384231]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[(366, 659, 14, 15), (554, 635, 13, 17), (51, 96, 633, 607)]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[23.41372, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[0.445601, 0.266051, 0.349695]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>128220.666667</v>
+      </c>
+      <c r="H2" t="n">
+        <v>384231</v>
+      </c>
+      <c r="I2" t="n">
+        <v>210</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7.804573</v>
+      </c>
+      <c r="K2" t="n">
+        <v>23.41372</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.353782</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.445601</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.266051</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[3, 3, 386106, 1, 3428838]</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.14084, 8.9454]</t>
-        </is>
+          <t>[434128]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[(0, 57, 688, 631)]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[0.0]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[0.450479]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>434128</v>
+      </c>
+      <c r="H3" t="n">
+        <v>434128</v>
+      </c>
+      <c r="I3" t="n">
+        <v>434128</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.450479</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.450479</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.450479</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[256027, 3358944]</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.03038, 8.11324]</t>
-        </is>
+          <t>[251995]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[(113, 125, 499, 505)]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[0.011382]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[0.342963]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>251995</v>
+      </c>
+      <c r="H4" t="n">
+        <v>251995</v>
+      </c>
+      <c r="I4" t="n">
+        <v>251995</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.011382</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.011382</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.011382</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.342963</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.342963</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.342963</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[2, 134603, 108528, 12325]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[(309, 569, 1, 2), (310, 134, 287, 469), (125, 130, 238, 456), (1272, 0, 85, 145)]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[0.342601, 0.31011, 0.997968]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>63864.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>134603</v>
+      </c>
+      <c r="I5" t="n">
         <v>2</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[305184, 3204652]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[0.00319, 10.80182]</t>
-        </is>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.550226</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.997968</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.31011</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[450288, 3283215]</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0.05382, 31.28158]</t>
-        </is>
+          <t>[293280]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[(53, 102, 564, 520)]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[0.029688]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[0.444185]</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>293280</v>
+      </c>
+      <c r="H6" t="n">
+        <v>293280</v>
+      </c>
+      <c r="I6" t="n">
+        <v>293280</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.029688</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.029688</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.029688</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.444185</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.444185</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.444185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[301924, 3226311]</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[0.0007, 26.91463]</t>
-        </is>
+          <t>[291720]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[(53, 100, 561, 520)]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[0.011448]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[0.42878]</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>291720</v>
+      </c>
+      <c r="H7" t="n">
+        <v>291720</v>
+      </c>
+      <c r="I7" t="n">
+        <v>291720</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.011448</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.011448</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.011448</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.42878</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.42878</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.42878</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[304554, 3175578]</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[0.02214, 9.2851]</t>
-        </is>
+          <t>[293235]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[(51, 103, 565, 519)]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[0.013417]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[0.434295]</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>293235</v>
+      </c>
+      <c r="H8" t="n">
+        <v>293235</v>
+      </c>
+      <c r="I8" t="n">
+        <v>293235</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.013417</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.013417</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.013417</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.434295</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.434295</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.434295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[269328, 3233043]</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[0.01842, 25.67461]</t>
-        </is>
+          <t>[260230]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[(50, 108, 530, 491)]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[0.008727]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[0.422979]</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>260230</v>
+      </c>
+      <c r="H9" t="n">
+        <v>260230</v>
+      </c>
+      <c r="I9" t="n">
+        <v>260230</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.008727</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.008727</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.008727</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.422979</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.422979</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.422979</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[288225, 3303582]</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[0.01784, 31.27066]</t>
-        </is>
+          <t>[273896]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[(117, 111, 536, 511)]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[0.059893]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>[0.495325]</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>273896</v>
+      </c>
+      <c r="H10" t="n">
+        <v>273896</v>
+      </c>
+      <c r="I10" t="n">
+        <v>273896</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.059893</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.059893</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.059893</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.495325</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.495325</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.495325</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[279939, 3309150]</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[0.03376, 18.59034]</t>
-        </is>
+          <t>[270657]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[(101, 144, 549, 493)]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[0.061703]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>[0.460215]</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>270657</v>
+      </c>
+      <c r="H11" t="n">
+        <v>270657</v>
+      </c>
+      <c r="I11" t="n">
+        <v>270657</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.061703</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.061703</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.061703</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.460215</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.460215</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.460215</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[275880, 3304592]</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[0.06504, 12.73825]</t>
-        </is>
+          <t>[267282]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[(79, 179, 558, 479)]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[0.097814]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[0.527634]</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>267282</v>
+      </c>
+      <c r="H12" t="n">
+        <v>267282</v>
+      </c>
+      <c r="I12" t="n">
+        <v>267282</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.097814</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.097814</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.097814</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.527634</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.527634</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.527634</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[3240200]</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[8.94524]</t>
-        </is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
         <v>2</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[645060, 3200239]</t>
-        </is>
-      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[0.01017, 8.42827]</t>
-        </is>
+          <t>[565500, 25432]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>[(0, 0, 750, 754), (0, 0, 187, 136)]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[0.404841, 0.886101]</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>295466</v>
+      </c>
+      <c r="H14" t="n">
+        <v>565500</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25432</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.645471</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.886101</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.404841</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[261404, 3382236]</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[0.01607, 57.35139]</t>
-        </is>
+          <t>[219136]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[(116, 121, 512, 428)]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[0.018805]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[0.616293]</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>219136</v>
+      </c>
+      <c r="H15" t="n">
+        <v>219136</v>
+      </c>
+      <c r="I15" t="n">
+        <v>219136</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.018805</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.018805</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.018805</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.616293</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.616293</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.616293</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[227850, 3199250]</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[0.03405, 12.5441]</t>
-        </is>
+          <t>[252668]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[(92, 140, 559, 452)]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[0.014527]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[0.617935]</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>252668</v>
+      </c>
+      <c r="H16" t="n">
+        <v>252668</v>
+      </c>
+      <c r="I16" t="n">
+        <v>252668</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.014527</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.014527</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.014527</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.617935</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.617935</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.617935</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>13</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[4, 2, 6, 7, 22, 2, 330, 216672, 28, 15, 1, 2, 3420289]</t>
-        </is>
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[1.7976931348623157e+308, 2.93953, 0.01856, 2.54013, 0.00323, 50.543]</t>
-        </is>
+          <t>[232776]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[(168, 177, 488, 477)]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[0.093996]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[0.347095]</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>232776</v>
+      </c>
+      <c r="H17" t="n">
+        <v>232776</v>
+      </c>
+      <c r="I17" t="n">
+        <v>232776</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.093996</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.093996</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.093996</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.347095</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.347095</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.347095</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[241552, 3422529]</t>
-        </is>
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[0.00138, 13.13378]</t>
-        </is>
+          <t>[215254]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[(204, 144, 442, 487)]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[0.01225]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[0.502184]</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>215254</v>
+      </c>
+      <c r="H18" t="n">
+        <v>215254</v>
+      </c>
+      <c r="I18" t="n">
+        <v>215254</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.01225</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.01225</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.01225</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.502184</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.502184</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.502184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[236171, 2, 245, 6, 1, 3456834]</t>
-        </is>
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[0.06918, 30.56795, 14.42]</t>
-        </is>
+          <t>[15, 12078, 35856, 70, 1320, 1, 51342, 121124]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[(582, 584, 3, 5), (411, 578, 183, 66), (196, 473, 216, 166), (190, 463, 7, 10), (178, 412, 22, 60), (235, 233, 1, 1), (174, 153, 199, 258), (374, 151, 283, 428)]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[0.377548, 0.0, 0.0, 0.820618, 1.930539, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[0.866025, 0.969407, 0.925172, 0.798668, 0.978284, 0.429995, 0.575602]</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>27725.75</v>
+      </c>
+      <c r="H19" t="n">
+        <v>121124</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.446958</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.930539</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.791879</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.978284</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.429995</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[1, 231037, 1, 1, 4, 15, 2, 65, 2, 3434382]</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[0.05787, 419.18919, 17.86146, 5.47073]</t>
-        </is>
+          <t>[229578]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[(130, 208, 498, 461)]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[0.0]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[0.43346]</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>229578</v>
+      </c>
+      <c r="H20" t="n">
+        <v>229578</v>
+      </c>
+      <c r="I20" t="n">
+        <v>229578</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.43346</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.43346</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.43346</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>[24, 2366, 33, 1, 2, 3, 36, 120, 220, 3420942]</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[17.24494, 0.84595, 1.7976931348623157e+308, 1.7976931348623157e+308, 1.7976931348623157e+308, 3.03492, 7.96866]</t>
-        </is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>[1, 206829, 3533760]</t>
-        </is>
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[0.04189, 35.28605]</t>
-        </is>
+          <t>[205452]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[(188, 167, 468, 439)]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[0.025347]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[0.625425]</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>205452</v>
+      </c>
+      <c r="H22" t="n">
+        <v>205452</v>
+      </c>
+      <c r="I22" t="n">
+        <v>205452</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.025347</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.025347</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.025347</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.625425</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.625425</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.625425</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>14</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>[1, 72, 5, 12, 1, 12, 1, 3, 3, 264, 4, 8, 529720, 3416556]</t>
-        </is>
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[66.16234, 0.0, 3.32353, 18.12975, 1.7976931348623157e+308, 0.01094, 15.27559]</t>
-        </is>
+          <t>[503328, 444544]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[(44, 1050, 672, 749), (0, 600, 1208, 368)]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[0.527316, 0.969924]</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>473936</v>
+      </c>
+      <c r="H23" t="n">
+        <v>503328</v>
+      </c>
+      <c r="I23" t="n">
+        <v>444544</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.74862</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.969924</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.527316</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>[183920, 1, 4070500]</t>
-        </is>
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[0.01593, 11.84248]</t>
-        </is>
+          <t>[181792, 162580]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[(202, 137, 437, 416), (1271, 0, 220, 739)]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>[0.036393, 0.0]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[0.647373, 0.83474]</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>172186</v>
+      </c>
+      <c r="H24" t="n">
+        <v>181792</v>
+      </c>
+      <c r="I24" t="n">
+        <v>162580</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.018196</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.036393</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.741056</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.83474</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.647373</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>[257424, 3350325]</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[0.02175, 10.35584]</t>
-        </is>
+          <t>[255398]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[(117, 117, 494, 517)]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>[0.021749]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>[0.395288]</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>255398</v>
+      </c>
+      <c r="H25" t="n">
+        <v>255398</v>
+      </c>
+      <c r="I25" t="n">
+        <v>255398</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.021749</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.021749</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.021749</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.395288</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.395288</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.395288</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>平均值</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.541667</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>225336.829861</v>
+      </c>
+      <c r="H26" t="n">
+        <v>255719.291667</v>
+      </c>
+      <c r="I26" t="n">
+        <v>203310.583333</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.364603</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.077558</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.020031</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.473982</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.527381</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.422093</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>最大值</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>8</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>473936</v>
+      </c>
+      <c r="H27" t="n">
+        <v>565500</v>
+      </c>
+      <c r="I27" t="n">
+        <v>444544</v>
+      </c>
+      <c r="J27" t="n">
+        <v>7.804573</v>
+      </c>
+      <c r="K27" t="n">
+        <v>23.41372</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.097814</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.791879</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.997968</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.647373</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>最小值</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/缺陷样本.xlsx
+++ b/缺陷样本.xlsx
@@ -514,228 +514,310 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>3</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.000000</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[210, 221, 384231]</t>
+          <t>[434128]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[(366, 659, 14, 15), (554, 635, 13, 17), (51, 96, 633, 607)]</t>
+          <t>[(0, 57, 688, 631)]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[23.41372, 0.0, 0.0]</t>
+          <t>[0.0]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0.445601, 0.266051, 0.349695]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>128220.666667</v>
-      </c>
-      <c r="H2" t="n">
-        <v>384231</v>
-      </c>
-      <c r="I2" t="n">
-        <v>210</v>
-      </c>
-      <c r="J2" t="n">
-        <v>7.804573</v>
-      </c>
-      <c r="K2" t="n">
-        <v>23.41372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.353782</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.445601</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.266051</v>
+          <t>[0.450479]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>434128.000000</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>434128.000000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>434128.000000</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.450479</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0.450479</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0.450479</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.000000</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[434128]</t>
+          <t>[251995]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[(0, 57, 688, 631)]</t>
+          <t>[(113, 125, 499, 505)]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.0]</t>
+          <t>[0.011382]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[0.450479]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>434128</v>
-      </c>
-      <c r="H3" t="n">
-        <v>434128</v>
-      </c>
-      <c r="I3" t="n">
-        <v>434128</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.450479</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.450479</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.450479</v>
+          <t>[0.342963]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>251995.000000</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>251995.000000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>251995.000000</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.011382</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.011382</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.011382</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0.342963</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0.342963</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.342963</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4.000000</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[251995]</t>
+          <t>[2, 134603, 108528, 12325]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[(113, 125, 499, 505)]</t>
+          <t>[(309, 569, 1, 2), (310, 134, 287, 469), (125, 130, 238, 456), (1272, 0, 85, 145)]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.011382]</t>
+          <t>[0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[0.342963]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>251995</v>
-      </c>
-      <c r="H4" t="n">
-        <v>251995</v>
-      </c>
-      <c r="I4" t="n">
-        <v>251995</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.011382</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.011382</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.011382</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.342963</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.342963</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.342963</v>
+          <t>[0.342601, 0.31011, 0.997968]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>63864.500000</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>134603.000000</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2.000000</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.550226</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0.997968</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.310110</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>4</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3.000000</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[2, 134603, 108528, 12325]</t>
+          <t>[210, 221, 384231]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[(309, 569, 1, 2), (310, 134, 287, 469), (125, 130, 238, 456), (1272, 0, 85, 145)]</t>
+          <t>[(366, 659, 14, 15), (554, 635, 13, 17), (51, 96, 633, 607)]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0]</t>
+          <t>[23.41372, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[0.342601, 0.31011, 0.997968]</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>63864.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>134603</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.550226</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.997968</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.31011</v>
+          <t>[0.445601, 0.266051, 0.349695]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>128220.666667</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>384231.000000</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>210.000000</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>7.804573</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>23.413720</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.353782</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0.445601</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.266051</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.000000</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -757,40 +839,60 @@
           <t>[0.444185]</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>293280</v>
-      </c>
-      <c r="H6" t="n">
-        <v>293280</v>
-      </c>
-      <c r="I6" t="n">
-        <v>293280</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.029688</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.029688</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.029688</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.444185</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.444185</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.444185</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>293280.000000</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>293280.000000</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>293280.000000</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.029688</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0.029688</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.029688</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.444185</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0.444185</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0.444185</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1.000000</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -812,425 +914,585 @@
           <t>[0.42878]</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>291720</v>
-      </c>
-      <c r="H7" t="n">
-        <v>291720</v>
-      </c>
-      <c r="I7" t="n">
-        <v>291720</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.011448</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.011448</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.011448</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.42878</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.42878</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.42878</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>291720.000000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>291720.000000</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>291720.000000</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0.011448</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.011448</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.011448</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.428780</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0.428780</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0.428780</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>1</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.000000</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[293235]</t>
+          <t>[270657]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[(51, 103, 565, 519)]</t>
+          <t>[(101, 144, 549, 493)]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.013417]</t>
+          <t>[0.061703]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[0.434295]</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>293235</v>
-      </c>
-      <c r="H8" t="n">
-        <v>293235</v>
-      </c>
-      <c r="I8" t="n">
-        <v>293235</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.013417</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.013417</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.013417</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.434295</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.434295</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.434295</v>
+          <t>[0.460215]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>270657.000000</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>270657.000000</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>270657.000000</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0.061703</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0.061703</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.061703</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0.460215</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0.460215</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0.460215</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.000000</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[260230]</t>
+          <t>[293235]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[(50, 108, 530, 491)]</t>
+          <t>[(51, 103, 565, 519)]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.008727]</t>
+          <t>[0.013417]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[0.422979]</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>260230</v>
-      </c>
-      <c r="H9" t="n">
-        <v>260230</v>
-      </c>
-      <c r="I9" t="n">
-        <v>260230</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.008727</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.008727</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.008727</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.422979</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.422979</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.422979</v>
+          <t>[0.434295]</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>293235.000000</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>293235.000000</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>293235.000000</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0.013417</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.013417</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0.013417</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0.434295</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0.434295</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0.434295</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1.000000</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[273896]</t>
+          <t>[260230]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[(117, 111, 536, 511)]</t>
+          <t>[(50, 108, 530, 491)]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.059893]</t>
+          <t>[0.008727]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[0.495325]</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>273896</v>
-      </c>
-      <c r="H10" t="n">
-        <v>273896</v>
-      </c>
-      <c r="I10" t="n">
-        <v>273896</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.059893</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.059893</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.059893</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.495325</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.495325</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.495325</v>
+          <t>[0.422979]</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>260230.000000</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>260230.000000</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>260230.000000</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0.008727</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.008727</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.008727</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.422979</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0.422979</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0.422979</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1.000000</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[270657]</t>
+          <t>[273896]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[(101, 144, 549, 493)]</t>
+          <t>[(117, 111, 536, 511)]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.061703]</t>
+          <t>[0.059893]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[0.460215]</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>270657</v>
-      </c>
-      <c r="H11" t="n">
-        <v>270657</v>
-      </c>
-      <c r="I11" t="n">
-        <v>270657</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.061703</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.061703</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.061703</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.460215</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.460215</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.460215</v>
+          <t>[0.495325]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>273896.000000</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>273896.000000</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>273896.000000</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0.059893</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.059893</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0.059893</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0.495325</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0.495325</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0.495325</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[267282]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[(79, 179, 558, 479)]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.097814]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[0.527634]</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>267282</v>
-      </c>
-      <c r="H12" t="n">
-        <v>267282</v>
-      </c>
-      <c r="I12" t="n">
-        <v>267282</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.097814</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.097814</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.097814</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.527634</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.527634</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.527634</v>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1.000000</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[267282]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[(79, 179, 558, 479)]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.097814]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
+          <t>[0.527634]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>267282.000000</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>267282.000000</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>267282.000000</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.097814</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0.097814</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.097814</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.527634</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0.527634</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0.527634</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
-        <v>2</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1.000000</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[565500, 25432]</t>
+          <t>[252668]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[(0, 0, 750, 754), (0, 0, 187, 136)]</t>
+          <t>[(92, 140, 559, 452)]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[0.014527]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[0.404841, 0.886101]</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>295466</v>
-      </c>
-      <c r="H14" t="n">
-        <v>565500</v>
-      </c>
-      <c r="I14" t="n">
-        <v>25432</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.645471</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.886101</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.404841</v>
+          <t>[0.617935]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>252668.000000</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>252668.000000</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>252668.000000</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0.014527</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.014527</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0.014527</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0.617935</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0.617935</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0.617935</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1.000000</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1252,205 +1514,285 @@
           <t>[0.616293]</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>219136</v>
-      </c>
-      <c r="H15" t="n">
-        <v>219136</v>
-      </c>
-      <c r="I15" t="n">
-        <v>219136</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.018805</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.018805</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.018805</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.616293</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.616293</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.616293</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>219136.000000</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>219136.000000</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>219136.000000</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0.018805</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.018805</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0.018805</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0.616293</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0.616293</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0.616293</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2.000000</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[252668]</t>
+          <t>[565500, 25432]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[(92, 140, 559, 452)]</t>
+          <t>[(0, 0, 750, 754), (0, 0, 187, 136)]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.014527]</t>
+          <t>[0.0, 0.0]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[0.617935]</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>252668</v>
-      </c>
-      <c r="H16" t="n">
-        <v>252668</v>
-      </c>
-      <c r="I16" t="n">
-        <v>252668</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.014527</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.014527</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.014527</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.617935</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.617935</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.617935</v>
+          <t>[0.404841, 0.886101]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>295466.000000</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>565500.000000</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>25432.000000</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.645471</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0.886101</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0.404841</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
-        <v>1</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1.000000</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[232776]</t>
+          <t>[215254]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[(168, 177, 488, 477)]</t>
+          <t>[(204, 144, 442, 487)]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.093996]</t>
+          <t>[0.01225]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[0.347095]</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>232776</v>
-      </c>
-      <c r="H17" t="n">
-        <v>232776</v>
-      </c>
-      <c r="I17" t="n">
-        <v>232776</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.093996</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.093996</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.093996</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.347095</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.347095</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.347095</v>
+          <t>[0.502184]</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>215254.000000</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>215254.000000</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>215254.000000</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0.012250</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0.012250</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0.012250</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0.502184</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0.502184</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0.502184</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
-        <v>1</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1.000000</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[215254]</t>
+          <t>[232776]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[(204, 144, 442, 487)]</t>
+          <t>[(168, 177, 488, 477)]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.01225]</t>
+          <t>[0.093996]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[0.502184]</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>215254</v>
-      </c>
-      <c r="H18" t="n">
-        <v>215254</v>
-      </c>
-      <c r="I18" t="n">
-        <v>215254</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.01225</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.01225</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.01225</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.502184</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.502184</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.502184</v>
+          <t>[0.347095]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>232776.000000</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>232776.000000</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>232776.000000</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0.093996</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0.093996</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0.093996</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0.347095</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0.347095</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0.347095</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
-        <v>8</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>8.000000</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1472,205 +1814,285 @@
           <t>[0.866025, 0.969407, 0.925172, 0.798668, 0.978284, 0.429995, 0.575602]</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>27725.75</v>
-      </c>
-      <c r="H19" t="n">
-        <v>121124</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.446958</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.930539</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.791879</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.978284</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.429995</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>27725.750000</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>121124.000000</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1.000000</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0.446958</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1.930539</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.791879</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>0.978284</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>0.429995</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
-        <v>1</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[229578]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[(130, 208, 498, 461)]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.0]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[0.43346]</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>229578</v>
-      </c>
-      <c r="H20" t="n">
-        <v>229578</v>
-      </c>
-      <c r="I20" t="n">
-        <v>229578</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.43346</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.43346</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.43346</v>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
-        <v>0</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1.000000</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[229578]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[(130, 208, 498, 461)]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.0]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
+          <t>[0.43346]</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>229578.000000</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>229578.000000</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>229578.000000</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.433460</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>0.433460</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0.433460</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
-        <v>1</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2.000000</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[205452]</t>
+          <t>[181792, 162580]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[(188, 167, 468, 439)]</t>
+          <t>[(202, 137, 437, 416), (1271, 0, 220, 739)]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[0.025347]</t>
+          <t>[0.036393, 0.0]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[0.625425]</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>205452</v>
-      </c>
-      <c r="H22" t="n">
-        <v>205452</v>
-      </c>
-      <c r="I22" t="n">
-        <v>205452</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.025347</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.025347</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.025347</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.625425</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.625425</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.625425</v>
+          <t>[0.647373, 0.83474]</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>172186.000000</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>181792.000000</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>162580.000000</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0.018197</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0.036393</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0.741057</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>0.834740</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0.647373</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
-        <v>2</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2.000000</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1692,95 +2114,135 @@
           <t>[0.527316, 0.969924]</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>473936</v>
-      </c>
-      <c r="H23" t="n">
-        <v>503328</v>
-      </c>
-      <c r="I23" t="n">
-        <v>444544</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.74862</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.969924</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.527316</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>473936.000000</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>503328.000000</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>444544.000000</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0.748620</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>0.969924</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0.527316</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
-        <v>2</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1.000000</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[181792, 162580]</t>
+          <t>[205452]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[(202, 137, 437, 416), (1271, 0, 220, 739)]</t>
+          <t>[(188, 167, 468, 439)]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[0.036393, 0.0]</t>
+          <t>[0.025347]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[0.647373, 0.83474]</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>172186</v>
-      </c>
-      <c r="H24" t="n">
-        <v>181792</v>
-      </c>
-      <c r="I24" t="n">
-        <v>162580</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.018196</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.036393</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.741056</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.83474</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.647373</v>
+          <t>[0.625425]</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>205452.000000</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>205452.000000</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>205452.000000</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0.025347</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0.025347</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0.025347</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0.625425</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>0.625425</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>0.625425</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="n">
-        <v>1</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1.000000</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1802,32 +2264,50 @@
           <t>[0.395288]</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>255398</v>
-      </c>
-      <c r="H25" t="n">
-        <v>255398</v>
-      </c>
-      <c r="I25" t="n">
-        <v>255398</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.021749</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.021749</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.021749</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.395288</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.395288</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.395288</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>255398.000000</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>255398.000000</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>255398.000000</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0.021749</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0.021749</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0.021749</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0.395288</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>0.395288</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>0.395288</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1836,39 +2316,59 @@
           <t>平均值</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>1.541667</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1.541667</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="n">
-        <v>225336.829861</v>
-      </c>
-      <c r="H26" t="n">
-        <v>255719.291667</v>
-      </c>
-      <c r="I26" t="n">
-        <v>203310.583333</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.364603</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1.077558</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.020031</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.473982</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.527381</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.422093</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>225336.829861</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>255719.291667</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>203310.583333</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0.364603</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1.077558</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0.020031</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0.473982</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>0.527381</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0.422093</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1877,39 +2377,59 @@
           <t>最大值</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>8</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>8.000000</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="n">
-        <v>473936</v>
-      </c>
-      <c r="H27" t="n">
-        <v>565500</v>
-      </c>
-      <c r="I27" t="n">
-        <v>444544</v>
-      </c>
-      <c r="J27" t="n">
-        <v>7.804573</v>
-      </c>
-      <c r="K27" t="n">
-        <v>23.41372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.097814</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.791879</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.997968</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0.647373</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>473936.000000</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>565500.000000</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>444544.000000</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>7.804573</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>23.413720</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0.097814</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0.791879</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>0.997968</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0.647373</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1918,39 +2438,59 @@
           <t>最小值</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>0</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>0.000000</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/缺陷样本.xlsx
+++ b/缺陷样本.xlsx
@@ -516,72 +516,72 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.000000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[434128]</t>
+          <t>[251995]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[(0, 57, 688, 631)]</t>
+          <t>[(113, 125, 499, 505)]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.0]</t>
+          <t>[0.011382]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0.450479]</t>
+          <t>[0.342963]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>434128.000000</t>
+          <t>251995.000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>434128.000000</t>
+          <t>251995.000</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>434128.000000</t>
+          <t>251995.000</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.011</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.011</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.011</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.450479</t>
+          <t>0.343</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.450479</t>
+          <t>0.343</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.450479</t>
+          <t>0.343</t>
         </is>
       </c>
     </row>
@@ -591,72 +591,72 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.000000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[251995]</t>
+          <t>[291720]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[(113, 125, 499, 505)]</t>
+          <t>[(53, 100, 561, 520)]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.011382]</t>
+          <t>[0.011448]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[0.342963]</t>
+          <t>[0.42878]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>251995.000000</t>
+          <t>291720.000</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>251995.000000</t>
+          <t>291720.000</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>251995.000000</t>
+          <t>291720.000</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.011382</t>
+          <t>0.011</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.011382</t>
+          <t>0.011</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.011382</t>
+          <t>0.011</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.342963</t>
+          <t>0.429</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.342963</t>
+          <t>0.429</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.342963</t>
+          <t>0.429</t>
         </is>
       </c>
     </row>
@@ -666,72 +666,72 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4.000000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[2, 134603, 108528, 12325]</t>
+          <t>[434128]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[(309, 569, 1, 2), (310, 134, 287, 469), (125, 130, 238, 456), (1272, 0, 85, 145)]</t>
+          <t>[(0, 57, 688, 631)]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0]</t>
+          <t>[0.0]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[0.342601, 0.31011, 0.997968]</t>
+          <t>[0.450479]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>63864.500000</t>
+          <t>434128.000</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>134603.000000</t>
+          <t>434128.000</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2.000000</t>
+          <t>434128.000</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.550226</t>
+          <t>0.450</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.997968</t>
+          <t>0.450</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.310110</t>
+          <t>0.450</t>
         </is>
       </c>
     </row>
@@ -741,72 +741,72 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3.000000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[210, 221, 384231]</t>
+          <t>[293280]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[(366, 659, 14, 15), (554, 635, 13, 17), (51, 96, 633, 607)]</t>
+          <t>[(53, 102, 564, 520)]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[23.41372, 0.0, 0.0]</t>
+          <t>[0.029688]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[0.445601, 0.266051, 0.349695]</t>
+          <t>[0.444185]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>128220.666667</t>
+          <t>293280.000</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>384231.000000</t>
+          <t>293280.000</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>210.000000</t>
+          <t>293280.000</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>7.804573</t>
+          <t>0.030</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>23.413720</t>
+          <t>0.030</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.030</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.353782</t>
+          <t>0.444</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.445601</t>
+          <t>0.444</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.266051</t>
+          <t>0.444</t>
         </is>
       </c>
     </row>
@@ -816,72 +816,72 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.000000</t>
+          <t>3.000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[293280]</t>
+          <t>[210, 221, 384231]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[(53, 102, 564, 520)]</t>
+          <t>[(366, 659, 14, 15), (554, 635, 13, 17), (51, 96, 633, 607)]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.029688]</t>
+          <t>[23.41372, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[0.444185]</t>
+          <t>[0.445601, 0.266051, 0.349695]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>293280.000000</t>
+          <t>128220.667</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>293280.000000</t>
+          <t>384231.000</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>293280.000000</t>
+          <t>210.000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.029688</t>
+          <t>7.805</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.029688</t>
+          <t>23.414</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.029688</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.444185</t>
+          <t>0.354</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.444185</t>
+          <t>0.446</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.444185</t>
+          <t>0.266</t>
         </is>
       </c>
     </row>
@@ -891,72 +891,72 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.000000</t>
+          <t>4.000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[291720]</t>
+          <t>[2, 134603, 108528, 12325]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[(53, 100, 561, 520)]</t>
+          <t>[(309, 569, 1, 2), (310, 134, 287, 469), (125, 130, 238, 456), (1272, 0, 85, 145)]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.011448]</t>
+          <t>[0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[0.42878]</t>
+          <t>[0.342601, 0.31011, 0.997968]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>291720.000000</t>
+          <t>63864.500</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>291720.000000</t>
+          <t>134603.000</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>291720.000000</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.011448</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.011448</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.011448</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.428780</t>
+          <t>0.550</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.428780</t>
+          <t>0.998</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.428780</t>
+          <t>0.310</t>
         </is>
       </c>
     </row>
@@ -966,72 +966,72 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.000000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[270657]</t>
+          <t>[293235]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[(101, 144, 549, 493)]</t>
+          <t>[(51, 103, 565, 519)]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.061703]</t>
+          <t>[0.013417]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[0.460215]</t>
+          <t>[0.434295]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>270657.000000</t>
+          <t>293235.000</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>270657.000000</t>
+          <t>293235.000</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>270657.000000</t>
+          <t>293235.000</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.061703</t>
+          <t>0.013</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.061703</t>
+          <t>0.013</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.061703</t>
+          <t>0.013</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.460215</t>
+          <t>0.434</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0.460215</t>
+          <t>0.434</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.460215</t>
+          <t>0.434</t>
         </is>
       </c>
     </row>
@@ -1041,72 +1041,72 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.000000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[293235]</t>
+          <t>[270657]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[(51, 103, 565, 519)]</t>
+          <t>[(101, 144, 549, 493)]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.013417]</t>
+          <t>[0.061703]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[0.434295]</t>
+          <t>[0.460215]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>293235.000000</t>
+          <t>270657.000</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>293235.000000</t>
+          <t>270657.000</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>293235.000000</t>
+          <t>270657.000</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.013417</t>
+          <t>0.062</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.013417</t>
+          <t>0.062</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.013417</t>
+          <t>0.062</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.434295</t>
+          <t>0.460</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0.434295</t>
+          <t>0.460</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.434295</t>
+          <t>0.460</t>
         </is>
       </c>
     </row>
@@ -1116,72 +1116,72 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.000000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[260230]</t>
+          <t>[267282]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[(50, 108, 530, 491)]</t>
+          <t>[(79, 179, 558, 479)]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.008727]</t>
+          <t>[0.097814]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[0.422979]</t>
+          <t>[0.527634]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>260230.000000</t>
+          <t>267282.000</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>260230.000000</t>
+          <t>267282.000</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>260230.000000</t>
+          <t>267282.000</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.008727</t>
+          <t>0.098</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.008727</t>
+          <t>0.098</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.008727</t>
+          <t>0.098</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.422979</t>
+          <t>0.528</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0.422979</t>
+          <t>0.528</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.422979</t>
+          <t>0.528</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.000000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1216,47 +1216,47 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>273896.000000</t>
+          <t>273896.000</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>273896.000000</t>
+          <t>273896.000</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>273896.000000</t>
+          <t>273896.000</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.059893</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.059893</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.059893</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.495325</t>
+          <t>0.495</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.495325</t>
+          <t>0.495</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.495325</t>
+          <t>0.495</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1291,47 +1291,47 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -1341,72 +1341,72 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.000000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[267282]</t>
+          <t>[260230]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[(79, 179, 558, 479)]</t>
+          <t>[(50, 108, 530, 491)]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.097814]</t>
+          <t>[0.008727]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[0.527634]</t>
+          <t>[0.422979]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>267282.000000</t>
+          <t>260230.000</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>267282.000000</t>
+          <t>260230.000</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>267282.000000</t>
+          <t>260230.000</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.097814</t>
+          <t>0.009</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.097814</t>
+          <t>0.009</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.097814</t>
+          <t>0.009</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.527634</t>
+          <t>0.423</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.527634</t>
+          <t>0.423</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.527634</t>
+          <t>0.423</t>
         </is>
       </c>
     </row>
@@ -1416,72 +1416,72 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.000000</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[252668]</t>
+          <t>[565500, 25432]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[(92, 140, 559, 452)]</t>
+          <t>[(0, 0, 750, 754), (0, 0, 187, 136)]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.014527]</t>
+          <t>[0.0, 0.0]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[0.617935]</t>
+          <t>[0.404841, 0.886101]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>252668.000000</t>
+          <t>295466.000</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>252668.000000</t>
+          <t>565500.000</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>252668.000000</t>
+          <t>25432.000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.014527</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.014527</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.014527</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.617935</t>
+          <t>0.645</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0.617935</t>
+          <t>0.886</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.617935</t>
+          <t>0.405</t>
         </is>
       </c>
     </row>
@@ -1491,72 +1491,72 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.000000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[219136]</t>
+          <t>[215254]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[(116, 121, 512, 428)]</t>
+          <t>[(204, 144, 442, 487)]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[0.018805]</t>
+          <t>[0.01225]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[0.616293]</t>
+          <t>[0.502184]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>219136.000000</t>
+          <t>215254.000</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>219136.000000</t>
+          <t>215254.000</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>219136.000000</t>
+          <t>215254.000</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.018805</t>
+          <t>0.012</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.018805</t>
+          <t>0.012</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.018805</t>
+          <t>0.012</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.616293</t>
+          <t>0.502</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>0.616293</t>
+          <t>0.502</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.616293</t>
+          <t>0.502</t>
         </is>
       </c>
     </row>
@@ -1566,72 +1566,72 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2.000000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[565500, 25432]</t>
+          <t>[252668]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[(0, 0, 750, 754), (0, 0, 187, 136)]</t>
+          <t>[(92, 140, 559, 452)]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[0.014527]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[0.404841, 0.886101]</t>
+          <t>[0.617935]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>295466.000000</t>
+          <t>252668.000</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>565500.000000</t>
+          <t>252668.000</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>25432.000000</t>
+          <t>252668.000</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.645471</t>
+          <t>0.618</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0.886101</t>
+          <t>0.618</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.404841</t>
+          <t>0.618</t>
         </is>
       </c>
     </row>
@@ -1641,72 +1641,72 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.000000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[215254]</t>
+          <t>[219136]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[(204, 144, 442, 487)]</t>
+          <t>[(116, 121, 512, 428)]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.01225]</t>
+          <t>[0.018805]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[0.502184]</t>
+          <t>[0.616293]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>215254.000000</t>
+          <t>219136.000</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>215254.000000</t>
+          <t>219136.000</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>215254.000000</t>
+          <t>219136.000</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.012250</t>
+          <t>0.019</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.012250</t>
+          <t>0.019</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.012250</t>
+          <t>0.019</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.502184</t>
+          <t>0.616</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0.502184</t>
+          <t>0.616</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.502184</t>
+          <t>0.616</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.000000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1741,47 +1741,47 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>232776.000000</t>
+          <t>232776.000</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>232776.000000</t>
+          <t>232776.000</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>232776.000000</t>
+          <t>232776.000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.093996</t>
+          <t>0.094</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.093996</t>
+          <t>0.094</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.093996</t>
+          <t>0.094</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.347095</t>
+          <t>0.347</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0.347095</t>
+          <t>0.347</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.347095</t>
+          <t>0.347</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8.000000</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1816,47 +1816,47 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>27725.750000</t>
+          <t>27725.750</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>121124.000000</t>
+          <t>121124.000</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1.000000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.446958</t>
+          <t>0.447</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1.930539</t>
+          <t>1.931</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.791879</t>
+          <t>0.792</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>0.978284</t>
+          <t>0.978</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.429995</t>
+          <t>0.430</t>
         </is>
       </c>
     </row>
@@ -1866,72 +1866,72 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[229578]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[(130, 208, 498, 461)]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.0]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.43346]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>229578.000</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>229578.000</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>229578.000</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.433</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.433</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.433</t>
         </is>
       </c>
     </row>
@@ -1941,72 +1941,72 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.000000</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[229578]</t>
+          <t>[503328, 444544]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[(130, 208, 498, 461)]</t>
+          <t>[(44, 1050, 672, 749), (0, 600, 1208, 368)]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.0]</t>
+          <t>[0.0, 0.0]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[0.43346]</t>
+          <t>[0.527316, 0.969924]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>229578.000000</t>
+          <t>473936.000</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>229578.000000</t>
+          <t>503328.000</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>229578.000000</t>
+          <t>444544.000</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.433460</t>
+          <t>0.749</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>0.433460</t>
+          <t>0.970</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.433460</t>
+          <t>0.527</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2.000000</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2041,47 +2041,47 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>172186.000000</t>
+          <t>172186.000</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>181792.000000</t>
+          <t>181792.000</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>162580.000000</t>
+          <t>162580.000</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.018197</t>
+          <t>0.018</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.036393</t>
+          <t>0.036</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.741057</t>
+          <t>0.741</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0.834740</t>
+          <t>0.835</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.647373</t>
+          <t>0.647</t>
         </is>
       </c>
     </row>
@@ -2091,72 +2091,72 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[503328, 444544]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[(44, 1050, 672, 749), (0, 600, 1208, 368)]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[0.527316, 0.969924]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>473936.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>503328.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>444544.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.748620</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>0.969924</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.527316</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.000000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2191,47 +2191,47 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>205452.000000</t>
+          <t>205452.000</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>205452.000000</t>
+          <t>205452.000</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>205452.000000</t>
+          <t>205452.000</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.025347</t>
+          <t>0.025</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.025347</t>
+          <t>0.025</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.025347</t>
+          <t>0.025</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.625425</t>
+          <t>0.625</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>0.625425</t>
+          <t>0.625</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.625425</t>
+          <t>0.625</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.000000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2266,47 +2266,47 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>255398.000000</t>
+          <t>255398.000</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>255398.000000</t>
+          <t>255398.000</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>255398.000000</t>
+          <t>255398.000</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.021749</t>
+          <t>0.022</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.021749</t>
+          <t>0.022</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.021749</t>
+          <t>0.022</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.395288</t>
+          <t>0.395</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>0.395288</t>
+          <t>0.395</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.395288</t>
+          <t>0.395</t>
         </is>
       </c>
     </row>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.541667</t>
+          <t>1.542</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -2327,47 +2327,47 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>225336.829861</t>
+          <t>225336.830</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>255719.291667</t>
+          <t>255719.292</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>203310.583333</t>
+          <t>203310.583</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.364603</t>
+          <t>0.365</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1.077558</t>
+          <t>1.078</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.020031</t>
+          <t>0.020</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.473982</t>
+          <t>0.474</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0.527381</t>
+          <t>0.527</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.422093</t>
+          <t>0.422</t>
         </is>
       </c>
     </row>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8.000000</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -2388,47 +2388,47 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>473936.000000</t>
+          <t>473936.000</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>565500.000000</t>
+          <t>565500.000</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>444544.000000</t>
+          <t>444544.000</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>7.804573</t>
+          <t>7.805</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>23.413720</t>
+          <t>23.414</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.097814</t>
+          <t>0.098</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.791879</t>
+          <t>0.792</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>0.997968</t>
+          <t>0.998</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.647373</t>
+          <t>0.647</t>
         </is>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -2449,47 +2449,47 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
